--- a/test.xlsx
+++ b/test.xlsx
@@ -1153,13 +1153,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -1172,6 +1172,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1153,13 +1153,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -1183,6 +1183,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
